--- a/biology/Zoologie/Cygne_noir/Cygne_noir.xlsx
+++ b/biology/Zoologie/Cygne_noir/Cygne_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cygnus atratus
 Le cygne noir (Cygnus atratus) est une espèce de cygnes originaire d'Australie qui doit son nom à la coloration en grande partie noire de son plumage.
@@ -513,10 +525,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cygne noir est originaire d'Australie. En 1864, il est également introduit en Nouvelle-Zélande.
-Au cours des XIXe et XXe siècles, il a été introduit à titre d'oiseau d'ornement des plans d'eau dans différents pays, notamment en Europe : Allemagne, Autriche, Belgique, France, Grande-Bretagne, Pays-Bas[1]…
+Au cours des XIXe et XXe siècles, il a été introduit à titre d'oiseau d'ornement des plans d'eau dans différents pays, notamment en Europe : Allemagne, Autriche, Belgique, France, Grande-Bretagne, Pays-Bas…
 Le premier couple de cygnes noirs introduits en Europe l'ont été par l'impératrice Joséphine de Beauharnais depuis le port de Nantes. La légende raconte que tous les cygnes noirs du continent descendraient des cygnes que l'impératrice conservait dans le parc du château de la Malmaison. 
 </t>
         </is>
@@ -546,9 +560,11 @@
           <t>Mensurations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mesure de 110 à 140 cm[2] pour une envergure de 160 à 200 cm et un poids de 3 700 à 8 750 g.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mesure de 110 à 140 cm pour une envergure de 160 à 200 cm et un poids de 3 700 à 8 750 g.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En territoire australien, il niche en colonies très denses, contrairement au cygne tuberculé. Il peut s'hybrider avec ce dernier.
 </t>
@@ -608,7 +626,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente les grands lacs généralement peu profonds.
 </t>
@@ -639,9 +659,11 @@
           <t>Population et conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La population mondiale est estimée entre 300 000 et 500 000 individus, (selon l'IUCN : 100 000 à 1 000 000)[3]).
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La population mondiale est estimée entre 300 000 et 500 000 individus, (selon l'IUCN : 100 000 à 1 000 000)).
 </t>
         </is>
       </c>
@@ -672,10 +694,50 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chasse
-En Nouvelle-Zélande, la chasse au cygne noir est autorisée[4] en vertu du Wildlife Act 1953, sauf sur les îles Chatham[5] où elle n'est permise que sur notification du ministre[6]. La chasse est permise en saison seulement, selon les limites régionales. Environ 5 000 cygnes sont chassés chaque année[7].
-Domestication
-En France, la variété argentée du cygne noir est légalement considérée comme étant domestique[8].
+          <t>Chasse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Nouvelle-Zélande, la chasse au cygne noir est autorisée en vertu du Wildlife Act 1953, sauf sur les îles Chatham où elle n'est permise que sur notification du ministre. La chasse est permise en saison seulement, selon les limites régionales. Environ 5 000 cygnes sont chassés chaque année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cygne_noir</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cygne_noir</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Le cygne noir et l'être humain</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Domestication</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la variété argentée du cygne noir est légalement considérée comme étant domestique.
 </t>
         </is>
       </c>
